--- a/static/files/logements_edd.xlsx
+++ b/static/files/logements_edd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/appel/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78CE28B-F0BF-8E44-A984-3D7702B3A6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CC6C22-746A-F34F-96DB-C7C43EECEB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31060" yWindow="3060" windowWidth="27020" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>PLAI_ADP</t>
-  </si>
-  <si>
-    <t>PLUS-PLAI</t>
   </si>
   <si>
     <t>PLS</t>
@@ -1320,7 +1317,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{175F71C0-CCE8-034C-8D7C-791DB0178004}">
           <x14:formula1>
-            <xm:f>Data!$C$2:$C$6</xm:f>
+            <xm:f>Data!$C$2:$C$5</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A102</xm:sqref>
         </x14:dataValidation>
@@ -1395,7 +1392,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1448,15 +1445,12 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nEzHLr3zxbgGqYZCIr+5pvzfxZ35ThEHEk3sd+is5DLOU2nb2Oj9hOA8Lk6B3JNZ9S9xHuIApubhjdbWs/FXyQ==" saltValue="H7oz+Ct5LIwqr3Dy6chvHw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rnR3B9faacWpLg/dZCjGdnC4QB1ODvZ+8vO2zeJbvIf7CHGd56x4uQDZvmHOaYPCv/0BX6bhNelhSGm2z4wICw==" saltValue="o2FYOTf893qn90wx8pp9zw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/static/files/logements_edd.xlsx
+++ b/static/files/logements_edd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/appel/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CC6C22-746A-F34F-96DB-C7C43EECEB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B25F19-4C85-C247-AFC4-D6D10F5B12E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31060" yWindow="3060" windowWidth="27020" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
@@ -1331,9 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467F41B6-50A5-F34D-9811-537B9541F979}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1391,9 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4880C39C-0BD9-B447-909B-7F37D33CA805}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/static/files/logements_edd.xlsx
+++ b/static/files/logements_edd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/appel/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78CE28B-F0BF-8E44-A984-3D7702B3A6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B25F19-4C85-C247-AFC4-D6D10F5B12E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31060" yWindow="3060" windowWidth="27020" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>PLAI_ADP</t>
-  </si>
-  <si>
-    <t>PLUS-PLAI</t>
   </si>
   <si>
     <t>PLS</t>
@@ -1320,7 +1317,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{175F71C0-CCE8-034C-8D7C-791DB0178004}">
           <x14:formula1>
-            <xm:f>Data!$C$2:$C$6</xm:f>
+            <xm:f>Data!$C$2:$C$5</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A102</xm:sqref>
         </x14:dataValidation>
@@ -1334,9 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467F41B6-50A5-F34D-9811-537B9541F979}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1394,9 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4880C39C-0BD9-B447-909B-7F37D33CA805}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1448,15 +1441,12 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nEzHLr3zxbgGqYZCIr+5pvzfxZ35ThEHEk3sd+is5DLOU2nb2Oj9hOA8Lk6B3JNZ9S9xHuIApubhjdbWs/FXyQ==" saltValue="H7oz+Ct5LIwqr3Dy6chvHw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rnR3B9faacWpLg/dZCjGdnC4QB1ODvZ+8vO2zeJbvIf7CHGd56x4uQDZvmHOaYPCv/0BX6bhNelhSGm2z4wICw==" saltValue="o2FYOTf893qn90wx8pp9zw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/static/files/logements_edd.xlsx
+++ b/static/files/logements_edd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/appel/static/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B25F19-4C85-C247-AFC4-D6D10F5B12E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA78EC9-74BA-9442-870C-1D90BA0E19B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31060" yWindow="3060" windowWidth="27020" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="33740" yWindow="3920" windowWidth="27020" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="EDD Simplifié" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -44,9 +44,6 @@
     <t>1. Telechager le modèle (ce fichier)</t>
   </si>
   <si>
-    <t>2. Modifier à votre guise le fichier pour modifier la liste des prêts</t>
-  </si>
-  <si>
     <t>3. Enregistrer vos modifications</t>
   </si>
   <si>
@@ -74,12 +71,6 @@
     <t>T5 et plus</t>
   </si>
   <si>
-    <t>si des logements sont déjà assignés à la convention, alors ils seront exportés dans le fichier modèle</t>
-  </si>
-  <si>
-    <t>5. Vérifier le contenu téléversé dans l'application et enrigistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
-  </si>
-  <si>
     <t>Désignation des logements</t>
   </si>
   <si>
@@ -99,6 +90,12 @@
   </si>
   <si>
     <t>PLS</t>
+  </si>
+  <si>
+    <t>2. Modifier à votre guise le fichier</t>
+  </si>
+  <si>
+    <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
   </si>
 </sst>
 </file>
@@ -767,13 +764,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1329,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467F41B6-50A5-F34D-9811-537B9541F979}">
-  <dimension ref="B2:B10"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1348,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
@@ -1366,21 +1363,16 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0IlGhDNZkMw1CpkJ22VrGnFOy5A1ba4VPUPDVGooSHmeI18rAH1D1+kQRd1kfaflIdffD1eeJO4DjXF1/JC4uA==" saltValue="z53X+BT+GWeylWBMFBybHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lQFSRMfDnlDhurywGjcXqXjBl4WVaooXg/W0jYSgLHUX3Rb88/D74WHjGCKDdrgdHHIJvoBs4koMGgGgZOgGeA==" saltValue="q3xx4YuwomipoCR143jmTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1399,47 +1391,47 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">

--- a/static/files/logements_edd.xlsx
+++ b/static/files/logements_edd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA78EC9-74BA-9442-870C-1D90BA0E19B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89936FD8-73E8-7241-B1BA-D16B93F71F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33740" yWindow="3920" windowWidth="27020" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="EDD Simplifié" sheetId="1" r:id="rId1"/>
@@ -754,7 +754,7 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/files/logements_edd.xlsx
+++ b/static/files/logements_edd.xlsx
@@ -22,78 +22,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Financement
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(choisir dans la liste déroulante)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Désignation des logements
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Attention, elle doit être identique à la désignation utilisée dans les tableaux suivants, ex : 604, Bâtiment B, étage 4, escalier 3, logement N°604)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">N° de lot des logements
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Numéro de lot des logements inscrits dans les actes de vente/propriété…)</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">Financement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Désignation des logements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° de lot des logements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(choisir dans la liste déroulante)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Attention, elle doit être identique à la désignation utilisée dans les tableaux suivants, ex : 604, Bâtiment B, étage 4, escalier 3, logement N°604)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Numéro de lot des logements inscrits dans les actes de vente/propriété…)</t>
   </si>
   <si>
     <t xml:space="preserve">Ici quelques explications</t>
@@ -118,9 +64,6 @@
   </si>
   <si>
     <t xml:space="preserve">Type de logement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financement</t>
   </si>
   <si>
     <t xml:space="preserve">T1</t>
@@ -363,7 +306,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,27 +323,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -534,20 +493,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.38"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,14 +517,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,523 +539,528 @@
       <c r="C4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="9"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="6"/>
+      <c r="C51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="6"/>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="13"/>
-      <c r="C55" s="6"/>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="6"/>
+      <c r="C57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="6"/>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="13"/>
-      <c r="C61" s="6"/>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="13"/>
-      <c r="C63" s="6"/>
+      <c r="C63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="17"/>
       <c r="C64" s="9"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="13"/>
-      <c r="C65" s="6"/>
+      <c r="C65" s="11"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7"/>
-      <c r="B66" s="8"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="17"/>
       <c r="C66" s="9"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12"/>
+      <c r="A67" s="10"/>
       <c r="B67" s="13"/>
-      <c r="C67" s="6"/>
+      <c r="C67" s="11"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="17"/>
       <c r="C68" s="9"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="13"/>
-      <c r="C69" s="6"/>
+      <c r="C69" s="11"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="9"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="13"/>
-      <c r="C71" s="6"/>
+      <c r="C71" s="11"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7"/>
-      <c r="B72" s="8"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="9"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="13"/>
-      <c r="C73" s="6"/>
+      <c r="C73" s="11"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="9"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12"/>
+      <c r="A75" s="10"/>
       <c r="B75" s="13"/>
-      <c r="C75" s="6"/>
+      <c r="C75" s="11"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7"/>
-      <c r="B76" s="8"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="9"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12"/>
+      <c r="A77" s="10"/>
       <c r="B77" s="13"/>
-      <c r="C77" s="6"/>
+      <c r="C77" s="11"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="17"/>
       <c r="C78" s="9"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12"/>
+      <c r="A79" s="10"/>
       <c r="B79" s="13"/>
-      <c r="C79" s="6"/>
+      <c r="C79" s="11"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7"/>
-      <c r="B80" s="8"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="17"/>
       <c r="C80" s="9"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="13"/>
-      <c r="C81" s="6"/>
+      <c r="C81" s="11"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="17"/>
       <c r="C82" s="9"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12"/>
+      <c r="A83" s="10"/>
       <c r="B83" s="13"/>
-      <c r="C83" s="6"/>
+      <c r="C83" s="11"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7"/>
-      <c r="B84" s="8"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="17"/>
       <c r="C84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="13"/>
-      <c r="C85" s="6"/>
+      <c r="C85" s="11"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7"/>
-      <c r="B86" s="8"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="17"/>
       <c r="C86" s="9"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12"/>
+      <c r="A87" s="10"/>
       <c r="B87" s="13"/>
-      <c r="C87" s="6"/>
+      <c r="C87" s="11"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7"/>
-      <c r="B88" s="8"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="17"/>
       <c r="C88" s="9"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12"/>
+      <c r="A89" s="10"/>
       <c r="B89" s="13"/>
-      <c r="C89" s="6"/>
+      <c r="C89" s="11"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="17"/>
       <c r="C90" s="9"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="12"/>
+      <c r="A91" s="10"/>
       <c r="B91" s="13"/>
-      <c r="C91" s="6"/>
+      <c r="C91" s="11"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="17"/>
       <c r="C92" s="9"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="12"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="13"/>
-      <c r="C93" s="6"/>
+      <c r="C93" s="11"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="9"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="12"/>
+      <c r="A95" s="10"/>
       <c r="B95" s="13"/>
-      <c r="C95" s="6"/>
+      <c r="C95" s="11"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7"/>
-      <c r="B96" s="8"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="17"/>
       <c r="C96" s="9"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="12"/>
+      <c r="A97" s="10"/>
       <c r="B97" s="13"/>
-      <c r="C97" s="6"/>
+      <c r="C97" s="11"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7"/>
-      <c r="B98" s="8"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="17"/>
       <c r="C98" s="9"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="12"/>
+      <c r="A99" s="10"/>
       <c r="B99" s="13"/>
-      <c r="C99" s="6"/>
+      <c r="C99" s="11"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7"/>
-      <c r="B100" s="8"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="17"/>
       <c r="C100" s="9"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12"/>
+      <c r="A101" s="10"/>
       <c r="B101" s="13"/>
-      <c r="C101" s="6"/>
+      <c r="C101" s="11"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="17"/>
       <c r="C102" s="9"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="10"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A102" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A103" type="list">
       <formula1>Data!$C$2:$C$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3:C102" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4 B5:C5 C6:C103" type="none">
       <formula1>Data!$A$2:$A$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1116,45 +1086,45 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="67"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="14" t="s">
-        <v>3</v>
+      <c r="B2" s="18" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1177,62 +1147,62 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>11</v>
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>13</v>
+      <c r="A2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>15</v>
+      <c r="A3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>17</v>
+      <c r="A4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>19</v>
+      <c r="A5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>20</v>
+      <c r="A6" s="21" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20"/>
+      <c r="A7" s="24"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="rnR3B9faacWpLg/dZCjGdnC4QB1ODvZ+8vO2zeJbvIf7CHGd56x4uQDZvmHOaYPCv/0BX6bhNelhSGm2z4wICw==" saltValue="o2FYOTf893qn90wx8pp9zw==" spinCount="100000" sheet="true" objects="true" scenarios="true"/>

--- a/static/files/logements_edd.xlsx
+++ b/static/files/logements_edd.xlsx
@@ -30,7 +30,7 @@
     <t xml:space="preserve">Désignation des logements</t>
   </si>
   <si>
-    <t xml:space="preserve">N° de lot des logements</t>
+    <t xml:space="preserve">Numéro de lot des logements</t>
   </si>
   <si>
     <t xml:space="preserve">(choisir dans la liste déroulante)</t>
@@ -496,10 +496,10 @@
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.78"/>
@@ -1066,7 +1066,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1086,7 +1086,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="67"/>
@@ -1130,7 +1130,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="lQFSRMfDnlDhurywGjcXqXjBl4WVaooXg/W0jYSgLHUX3Rb88/D74WHjGCKDdrgdHHIJvoBs4koMGgGgZOgGeA==" saltValue="q3xx4YuwomipoCR143jmTA==" spinCount="100000" sheet="true" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1150,7 +1150,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.82"/>
@@ -1207,7 +1207,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="rnR3B9faacWpLg/dZCjGdnC4QB1ODvZ+8vO2zeJbvIf7CHGd56x4uQDZvmHOaYPCv/0BX6bhNelhSGm2z4wICw==" saltValue="o2FYOTf893qn90wx8pp9zw==" spinCount="100000" sheet="true" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/static/files/logements_edd.xlsx
+++ b/static/files/logements_edd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marjo\Desktop\HD\Beta-Gouv\apilos\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89936FD8-73E8-7241-B1BA-D16B93F71F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762F5144-BADA-4F54-84CA-AB33F60B02C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="EDD Simplifié" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Financement</t>
   </si>
   <si>
-    <t>Type des logements</t>
-  </si>
-  <si>
     <t>PLUS</t>
   </si>
   <si>
@@ -96,6 +93,18 @@
   </si>
   <si>
     <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
+  </si>
+  <si>
+    <t>(choisir dans la liste déroulante)</t>
+  </si>
+  <si>
+    <t>(Attention, elle doit être identique à la désignation utilisée dans les tableaux suivants, ex : 604, Bâtiment B, étage 4, escalier 3, logement N°604)</t>
+  </si>
+  <si>
+    <t>Numéro de lot des logements</t>
+  </si>
+  <si>
+    <t>(Numéro de lot des logements inscrits dans les actes de vente/propriété…)</t>
   </si>
 </sst>
 </file>
@@ -105,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-40C]"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,6 +151,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -163,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -216,19 +232,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
@@ -318,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -328,34 +331,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -455,7 +454,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -754,49 +753,57 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C1" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="15"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
@@ -806,10 +813,10 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
@@ -819,499 +826,488 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="14"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="14"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="14"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="14"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="14"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="13"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="14"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
-      <c r="C42" s="14"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="13"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="14"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="14"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="13"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="14"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="10"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
-      <c r="C50" s="14"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="10"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="17"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
-      <c r="C52" s="14"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="10"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="17"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="13"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
-      <c r="C54" s="14"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
-      <c r="C55" s="17"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="13"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="10"/>
-      <c r="C56" s="14"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="10"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="17"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="13"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="10"/>
-      <c r="C58" s="14"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="10"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
-      <c r="C59" s="17"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="13"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
-      <c r="C60" s="14"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="10"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="17"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
-      <c r="C62" s="14"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="10"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="17"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="13"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="10"/>
-      <c r="C64" s="14"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="10"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
-      <c r="C65" s="17"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="13"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="10"/>
-      <c r="C66" s="14"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="10"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
-      <c r="C67" s="17"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="13"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="10"/>
-      <c r="C68" s="14"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="10"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
-      <c r="C69" s="17"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="13"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
-      <c r="C70" s="14"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="10"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
-      <c r="C71" s="17"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="13"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
-      <c r="C72" s="14"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="10"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
-      <c r="C73" s="17"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="13"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="10"/>
-      <c r="C74" s="14"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="10"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
-      <c r="C75" s="17"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="13"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="10"/>
-      <c r="C76" s="14"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="10"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
-      <c r="C77" s="17"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="13"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
-      <c r="C78" s="14"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="10"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
-      <c r="C79" s="17"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="13"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
-      <c r="C80" s="14"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="10"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
-      <c r="C81" s="17"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="13"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="10"/>
-      <c r="C82" s="14"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="10"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
-      <c r="C83" s="17"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="13"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="10"/>
-      <c r="C84" s="14"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="10"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
-      <c r="C85" s="17"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="13"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="10"/>
-      <c r="C86" s="14"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="10"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
-      <c r="C87" s="17"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="13"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
-      <c r="C88" s="14"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="10"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
-      <c r="C89" s="17"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="13"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
-      <c r="C90" s="14"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="10"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
-      <c r="C91" s="17"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="13"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="10"/>
-      <c r="C92" s="14"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="10"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
-      <c r="C93" s="17"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="13"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="10"/>
-      <c r="C94" s="14"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="10"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
-      <c r="C95" s="17"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="13"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="10"/>
-      <c r="C96" s="14"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="10"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
-      <c r="C97" s="17"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="13"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="10"/>
-      <c r="C98" s="14"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="10"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
-      <c r="C99" s="17"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="13"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="10"/>
-      <c r="C100" s="14"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="10"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
-      <c r="C101" s="17"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="13"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="10"/>
-      <c r="C102" s="14"/>
+      <c r="C102" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCD227EF-B54F-034B-A20F-2ABFE6AC8AED}">
-          <x14:formula1>
-            <xm:f>Data!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:C102</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{175F71C0-CCE8-034C-8D7C-791DB0178004}">
           <x14:formula1>
             <xm:f>Data!$C$2:$C$5</xm:f>
@@ -1330,43 +1326,43 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -1383,58 +1379,58 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.83203125" customWidth="1"/>
+    <col min="3" max="3" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
   </sheetData>

--- a/static/files/logements_edd.xlsx
+++ b/static/files/logements_edd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marjo\Desktop\HD\Beta-Gouv\apilos\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762F5144-BADA-4F54-84CA-AB33F60B02C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87465EA-878A-0546-84C1-CE11EA3320B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="EDD Simplifié" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-40C]"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -321,24 +318,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -357,6 +352,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +452,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -753,553 +751,553 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="3" max="3" width="32" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="13"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="13"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="13"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="13"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="13"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="13"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="13"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="13"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="13"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="13"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="13"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="13"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="13"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="13"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="13"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="13"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="13"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="13"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="13"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="13"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="13"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="13"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="13"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="13"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="13"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="13"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="22"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="22"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="21"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="21"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="22"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="22"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="22"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="21"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="22"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="21"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="22"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="21"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="22"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="21"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="22"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="21"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="22"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="21"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="22"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="21"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="22"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="21"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="22"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="21"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="22"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="21"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="22"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="21"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="22"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="21"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="22"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="21"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="22"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="21"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="22"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="21"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="22"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="21"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="22"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="21"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="22"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="21"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="22"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="21"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="22"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="21"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="22"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="21"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="22"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="6"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="21"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="22"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="21"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="22"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="21"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="22"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="21"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="8"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="22"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="6"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="21"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="8"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="22"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="6"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="21"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="22"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="6"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="21"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="8"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="22"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="6"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="21"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="8"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="22"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="6"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="21"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="8"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="22"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="6"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="21"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="8"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="22"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="6"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="21"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="8"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="22"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="6"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="21"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="8"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="22"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="6"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="21"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="8"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="22"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="6"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="21"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="8"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1326,43 +1324,43 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -1379,58 +1377,58 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.875" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
     </row>
   </sheetData>

--- a/static/files/logements_edd.xlsx
+++ b/static/files/logements_edd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87465EA-878A-0546-84C1-CE11EA3320B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2707DDD9-7FCB-FD47-86AA-0F39F1CB4F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>PLAI</t>
-  </si>
-  <si>
-    <t>PLAI_ADP</t>
   </si>
   <si>
     <t>PLS</t>
@@ -318,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -352,9 +349,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,15 +745,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
-    <col min="3" max="3" width="32" style="23" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -769,18 +762,18 @@
         <v>11</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -791,7 +784,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="22"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
@@ -801,7 +794,7 @@
     <row r="6" spans="1:11" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="22"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -827,7 +820,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
@@ -837,7 +830,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="22"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -847,7 +840,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="22"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
@@ -857,7 +850,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="22"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
@@ -867,7 +860,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="22"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -877,7 +870,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="22"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
@@ -887,7 +880,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="22"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
@@ -897,7 +890,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="22"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
@@ -907,7 +900,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="22"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
@@ -917,7 +910,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="22"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
@@ -927,7 +920,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="22"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
@@ -937,7 +930,7 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="22"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
@@ -947,7 +940,7 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="22"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
@@ -957,7 +950,7 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="22"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
@@ -967,7 +960,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="22"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
@@ -977,7 +970,7 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="22"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
@@ -987,7 +980,7 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="22"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
@@ -997,7 +990,7 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="22"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
@@ -1007,7 +1000,7 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="22"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
@@ -1017,7 +1010,7 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="22"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
@@ -1027,7 +1020,7 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="22"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
@@ -1037,7 +1030,7 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="22"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
@@ -1047,7 +1040,7 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="22"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
@@ -1057,7 +1050,7 @@
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="22"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
@@ -1067,7 +1060,7 @@
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="22"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
@@ -1077,7 +1070,7 @@
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
-      <c r="C58" s="22"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
@@ -1087,7 +1080,7 @@
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
-      <c r="C60" s="22"/>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
@@ -1097,7 +1090,7 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
-      <c r="C62" s="22"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -1107,7 +1100,7 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
-      <c r="C64" s="22"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
@@ -1117,7 +1110,7 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
-      <c r="C66" s="22"/>
+      <c r="C66" s="9"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
@@ -1127,7 +1120,7 @@
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
-      <c r="C68" s="22"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
@@ -1137,7 +1130,7 @@
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
-      <c r="C70" s="22"/>
+      <c r="C70" s="9"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
@@ -1147,7 +1140,7 @@
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
-      <c r="C72" s="22"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
@@ -1157,7 +1150,7 @@
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
-      <c r="C74" s="22"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
@@ -1167,7 +1160,7 @@
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
-      <c r="C76" s="22"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
@@ -1177,7 +1170,7 @@
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
-      <c r="C78" s="22"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
@@ -1187,7 +1180,7 @@
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="9"/>
-      <c r="C80" s="22"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
@@ -1197,7 +1190,7 @@
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
-      <c r="C82" s="22"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
@@ -1207,7 +1200,7 @@
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
-      <c r="C84" s="22"/>
+      <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
@@ -1217,7 +1210,7 @@
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="9"/>
-      <c r="C86" s="22"/>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
@@ -1227,7 +1220,7 @@
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="9"/>
-      <c r="C88" s="22"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
@@ -1237,7 +1230,7 @@
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="9"/>
-      <c r="C90" s="22"/>
+      <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
@@ -1247,7 +1240,7 @@
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="9"/>
-      <c r="C92" s="22"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
@@ -1257,7 +1250,7 @@
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="9"/>
-      <c r="C94" s="22"/>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
@@ -1267,7 +1260,7 @@
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="9"/>
-      <c r="C96" s="22"/>
+      <c r="C96" s="9"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
@@ -1277,7 +1270,7 @@
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="9"/>
-      <c r="C98" s="22"/>
+      <c r="C98" s="9"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
@@ -1287,7 +1280,7 @@
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="9"/>
-      <c r="C100" s="22"/>
+      <c r="C100" s="9"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
@@ -1297,7 +1290,7 @@
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="9"/>
-      <c r="C102" s="22"/>
+      <c r="C102" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1308,7 +1301,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{175F71C0-CCE8-034C-8D7C-791DB0178004}">
           <x14:formula1>
-            <xm:f>Data!$C$2:$C$5</xm:f>
+            <xm:f>Data!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A102</xm:sqref>
         </x14:dataValidation>
@@ -1342,7 +1335,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
@@ -1357,7 +1350,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
@@ -1419,9 +1412,6 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1432,7 +1422,7 @@
       <c r="A7" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rnR3B9faacWpLg/dZCjGdnC4QB1ODvZ+8vO2zeJbvIf7CHGd56x4uQDZvmHOaYPCv/0BX6bhNelhSGm2z4wICw==" saltValue="o2FYOTf893qn90wx8pp9zw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wnNF8dq4EQlAY3bw6Oejp7mW6UNCmjFIQvL86ndQn11xSnojYGhb8UEkkCGgZQaueviKI+2rXi9ZBo9BcThcEw==" saltValue="j9JeVYPBr1R2l4bt0sisbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/static/files/logements_edd.xlsx
+++ b/static/files/logements_edd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2707DDD9-7FCB-FD47-86AA-0F39F1CB4F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87465EA-878A-0546-84C1-CE11EA3320B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>PLAI</t>
+  </si>
+  <si>
+    <t>PLAI_ADP</t>
   </si>
   <si>
     <t>PLS</t>
@@ -315,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -349,7 +352,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,13 +750,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="3" max="3" width="32" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -762,18 +769,18 @@
         <v>11</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -784,7 +791,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
@@ -794,7 +801,7 @@
     <row r="6" spans="1:11" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -820,7 +827,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
@@ -830,7 +837,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -840,7 +847,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
@@ -850,7 +857,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
@@ -860,7 +867,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -870,7 +877,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
@@ -880,7 +887,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
@@ -890,7 +897,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
@@ -900,7 +907,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
@@ -910,7 +917,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
@@ -920,7 +927,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
@@ -930,7 +937,7 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
@@ -940,7 +947,7 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
@@ -950,7 +957,7 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
@@ -960,7 +967,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="C36" s="22"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
@@ -970,7 +977,7 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="C38" s="22"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
@@ -980,7 +987,7 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
@@ -990,7 +997,7 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
@@ -1000,7 +1007,7 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+      <c r="C44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
@@ -1010,7 +1017,7 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+      <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
@@ -1020,7 +1027,7 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
@@ -1030,7 +1037,7 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
+      <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
@@ -1040,7 +1047,7 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
@@ -1050,7 +1057,7 @@
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
@@ -1060,7 +1067,7 @@
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
+      <c r="C56" s="22"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
@@ -1070,7 +1077,7 @@
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
+      <c r="C58" s="22"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
@@ -1080,7 +1087,7 @@
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
+      <c r="C60" s="22"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
@@ -1090,7 +1097,7 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
+      <c r="C62" s="22"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -1100,7 +1107,7 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
@@ -1110,7 +1117,7 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
+      <c r="C66" s="22"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
@@ -1120,7 +1127,7 @@
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
+      <c r="C68" s="22"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
@@ -1130,7 +1137,7 @@
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
+      <c r="C70" s="22"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
@@ -1140,7 +1147,7 @@
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
+      <c r="C72" s="22"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
@@ -1150,7 +1157,7 @@
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
+      <c r="C74" s="22"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
@@ -1160,7 +1167,7 @@
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
+      <c r="C76" s="22"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
@@ -1170,7 +1177,7 @@
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
+      <c r="C78" s="22"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
@@ -1180,7 +1187,7 @@
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
+      <c r="C80" s="22"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
@@ -1190,7 +1197,7 @@
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
+      <c r="C82" s="22"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
@@ -1200,7 +1207,7 @@
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
+      <c r="C84" s="22"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
@@ -1210,7 +1217,7 @@
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
+      <c r="C86" s="22"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
@@ -1220,7 +1227,7 @@
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
+      <c r="C88" s="22"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
@@ -1230,7 +1237,7 @@
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
+      <c r="C90" s="22"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
@@ -1240,7 +1247,7 @@
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
+      <c r="C92" s="22"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
@@ -1250,7 +1257,7 @@
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
+      <c r="C94" s="22"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
@@ -1260,7 +1267,7 @@
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
+      <c r="C96" s="22"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
@@ -1270,7 +1277,7 @@
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
+      <c r="C98" s="22"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
@@ -1280,7 +1287,7 @@
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
+      <c r="C100" s="22"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
@@ -1290,7 +1297,7 @@
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
+      <c r="C102" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1301,7 +1308,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{175F71C0-CCE8-034C-8D7C-791DB0178004}">
           <x14:formula1>
-            <xm:f>Data!$C$2:$C$4</xm:f>
+            <xm:f>Data!$C$2:$C$5</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A102</xm:sqref>
         </x14:dataValidation>
@@ -1335,7 +1342,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
@@ -1350,7 +1357,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
@@ -1412,6 +1419,9 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1422,7 +1432,7 @@
       <c r="A7" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wnNF8dq4EQlAY3bw6Oejp7mW6UNCmjFIQvL86ndQn11xSnojYGhb8UEkkCGgZQaueviKI+2rXi9ZBo9BcThcEw==" saltValue="j9JeVYPBr1R2l4bt0sisbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rnR3B9faacWpLg/dZCjGdnC4QB1ODvZ+8vO2zeJbvIf7CHGd56x4uQDZvmHOaYPCv/0BX6bhNelhSGm2z4wICw==" saltValue="o2FYOTf893qn90wx8pp9zw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/static/files/logements_edd.xlsx
+++ b/static/files/logements_edd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2707DDD9-7FCB-FD47-86AA-0F39F1CB4F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E24E18-5D98-8649-A595-4DDFC2903CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>(Numéro de lot des logements inscrits dans les actes de vente/propriété…)</t>
+  </si>
+  <si>
+    <t>PLUS_CD</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -208,19 +211,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -315,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -323,33 +313,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,46 +744,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="21"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -805,9 +794,9 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -818,479 +807,479 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="21"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="21"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="21"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="21"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="21"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="21"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="20"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="21"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="20"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="21"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="20"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="21"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="20"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="21"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="20"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="21"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="20"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="21"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="20"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="21"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="20"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="21"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="20"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="21"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="20"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="21"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="20"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="21"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="20"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="21"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="20"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="21"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="20"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="21"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="20"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="21"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="20"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="21"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="20"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="21"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="20"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="21"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="20"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="21"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="20"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="21"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="20"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="21"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="20"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="21"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="20"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="21"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="20"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="21"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="20"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="21"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="20"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="6"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="21"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="20"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="21"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="20"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="6"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="21"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="20"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="21"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="20"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="8"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="6"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="21"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="20"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="21"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="20"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="8"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="21"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="20"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="6"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="21"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="20"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="8"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="6"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="21"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="8"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1299,9 +1288,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{175F71C0-CCE8-034C-8D7C-791DB0178004}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{59EB41A3-BA45-9F4B-B657-D354362CDCE4}">
           <x14:formula1>
-            <xm:f>Data!$C$2:$C$4</xm:f>
+            <xm:f>Data!$C$2:$C$5</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A102</xm:sqref>
         </x14:dataValidation>
@@ -1368,7 +1357,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4880C39C-0BD9-B447-909B-7F37D33CA805}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1380,7 +1371,7 @@
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1388,7 +1379,7 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1396,7 +1387,7 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1404,7 +1395,7 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1412,6 +1403,9 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1422,7 +1416,7 @@
       <c r="A7" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wnNF8dq4EQlAY3bw6Oejp7mW6UNCmjFIQvL86ndQn11xSnojYGhb8UEkkCGgZQaueviKI+2rXi9ZBo9BcThcEw==" saltValue="j9JeVYPBr1R2l4bt0sisbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="G7XyjjW09t23q0x1IFSfKMTjj6pKjHfG4OzwwIrlaKDR0u0ZnLj2PyP05K91h9VA+TbErXRoN/jN0B3zfkQJ6A==" saltValue="crgplngORk/3Jem/pRh4AA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/static/files/logements_edd.xlsx
+++ b/static/files/logements_edd.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E24E18-5D98-8649-A595-4DDFC2903CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A904636C-8F1B-984B-B8C0-21DC136B42B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="35580" yWindow="2100" windowWidth="27560" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="EDD Simplifié" sheetId="1" r:id="rId1"/>
     <sheet name="Notice" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -176,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -211,17 +211,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -305,40 +294,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,9 +424,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -476,7 +464,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -582,7 +570,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -724,7 +712,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -732,9 +720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -744,46 +734,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+    <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -793,10 +783,10 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="20"/>
+    <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -806,480 +796,485 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="20"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="20"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="20"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="20"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="20"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="20"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="20"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="20"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="20"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="20"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="20"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="20"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="20"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="20"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="20"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="20"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="20"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="20"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="20"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="20"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="20"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="20"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="20"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="20"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="20"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="20"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="9"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="20"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="20"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="20"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="20"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="20"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="20"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="20"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="7"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="20"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="20"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="20"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="9"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="20"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="20"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="7"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="20"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="7"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="9"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="20"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
+    <row r="8" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="19"/>
+    </row>
+    <row r="34" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="19"/>
+    </row>
+    <row r="36" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="19"/>
+    </row>
+    <row r="38" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="19"/>
+    </row>
+    <row r="40" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="19"/>
+    </row>
+    <row r="42" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="19"/>
+    </row>
+    <row r="44" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="19"/>
+    </row>
+    <row r="46" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="19"/>
+    </row>
+    <row r="48" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="19"/>
+    </row>
+    <row r="50" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="19"/>
+    </row>
+    <row r="52" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="19"/>
+    </row>
+    <row r="54" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="19"/>
+    </row>
+    <row r="56" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="19"/>
+    </row>
+    <row r="58" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+    </row>
+    <row r="59" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="19"/>
+    </row>
+    <row r="60" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+    </row>
+    <row r="61" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="19"/>
+    </row>
+    <row r="62" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="19"/>
+    </row>
+    <row r="64" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+    </row>
+    <row r="65" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="19"/>
+    </row>
+    <row r="66" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+    </row>
+    <row r="67" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="19"/>
+    </row>
+    <row r="68" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+    </row>
+    <row r="69" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="19"/>
+    </row>
+    <row r="70" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+    </row>
+    <row r="71" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="19"/>
+    </row>
+    <row r="72" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="19"/>
+    </row>
+    <row r="74" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="19"/>
+    </row>
+    <row r="76" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="19"/>
+    </row>
+    <row r="78" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+    </row>
+    <row r="79" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="8"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="19"/>
+    </row>
+    <row r="80" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+    </row>
+    <row r="81" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="19"/>
+    </row>
+    <row r="82" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+    </row>
+    <row r="83" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="19"/>
+    </row>
+    <row r="84" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="6"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+    </row>
+    <row r="85" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="19"/>
+    </row>
+    <row r="86" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+    </row>
+    <row r="87" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="8"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="19"/>
+    </row>
+    <row r="88" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+    </row>
+    <row r="89" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="8"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="19"/>
+    </row>
+    <row r="90" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+    </row>
+    <row r="91" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="19"/>
+    </row>
+    <row r="92" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+    </row>
+    <row r="93" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="8"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="19"/>
+    </row>
+    <row r="94" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="6"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+    </row>
+    <row r="95" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="8"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="19"/>
+    </row>
+    <row r="96" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="6"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+    </row>
+    <row r="97" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="8"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="19"/>
+    </row>
+    <row r="98" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+    </row>
+    <row r="99" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="8"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="19"/>
+    </row>
+    <row r="100" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+    </row>
+    <row r="101" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="8"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="19"/>
+    </row>
+    <row r="102" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="6"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+    </row>
+    <row r="103" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="8"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1287,7 +1282,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{59EB41A3-BA45-9F4B-B657-D354362CDCE4}">
           <x14:formula1>
             <xm:f>Data!$C$2:$C$5</xm:f>
@@ -1357,9 +1352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4880C39C-0BD9-B447-909B-7F37D33CA805}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1371,7 +1364,7 @@
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1379,7 +1372,7 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1387,7 +1380,7 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1395,7 +1388,7 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1403,7 +1396,7 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
     </row>
